--- a/FantaSoccer/MyModule/SerieA/Results_Giornata_10_2020.xlsx
+++ b/FantaSoccer/MyModule/SerieA/Results_Giornata_10_2020.xlsx
@@ -1971,7 +1971,7 @@
         <v>498</v>
       </c>
       <c r="G2">
-        <v>6.481605802092526</v>
+        <v>6.481605802092522</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1994,7 +1994,7 @@
         <v>498</v>
       </c>
       <c r="G3">
-        <v>5.299793756717523</v>
+        <v>5.299793756717521</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2017,7 +2017,7 @@
         <v>498</v>
       </c>
       <c r="G4">
-        <v>6.093815133380188</v>
+        <v>6.093815133380185</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2040,7 +2040,7 @@
         <v>498</v>
       </c>
       <c r="G5">
-        <v>5.483939552631599</v>
+        <v>5.483939552631597</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2063,7 +2063,7 @@
         <v>498</v>
       </c>
       <c r="G6">
-        <v>5.638967474116782</v>
+        <v>5.63896747411678</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2086,7 +2086,7 @@
         <v>498</v>
       </c>
       <c r="G7">
-        <v>5.707991496932551</v>
+        <v>5.707991496932548</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2109,7 +2109,7 @@
         <v>498</v>
       </c>
       <c r="G8">
-        <v>5.838523364618957</v>
+        <v>5.838523364618954</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2132,7 +2132,7 @@
         <v>498</v>
       </c>
       <c r="G9">
-        <v>5.843898699495161</v>
+        <v>5.843898699495157</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2155,7 +2155,7 @@
         <v>498</v>
       </c>
       <c r="G10">
-        <v>5.972232697438295</v>
+        <v>5.972232697438292</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2178,7 +2178,7 @@
         <v>498</v>
       </c>
       <c r="G11">
-        <v>6.086657023663746</v>
+        <v>6.086657023663742</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2198,7 +2198,7 @@
         <v>498</v>
       </c>
       <c r="G12">
-        <v>5.433258271273241</v>
+        <v>5.433258271273238</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2221,7 +2221,7 @@
         <v>498</v>
       </c>
       <c r="G13">
-        <v>5.699627726682012</v>
+        <v>5.699627726682009</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2244,7 +2244,7 @@
         <v>498</v>
       </c>
       <c r="G14">
-        <v>5.818521025790734</v>
+        <v>5.81852102579073</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2267,7 +2267,7 @@
         <v>498</v>
       </c>
       <c r="G15">
-        <v>5.708672219392095</v>
+        <v>5.708672219392092</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2290,7 +2290,7 @@
         <v>498</v>
       </c>
       <c r="G16">
-        <v>5.79166659250186</v>
+        <v>5.791666592501858</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2313,7 +2313,7 @@
         <v>498</v>
       </c>
       <c r="G17">
-        <v>6.807338124841896</v>
+        <v>6.807338124841892</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2336,7 +2336,7 @@
         <v>498</v>
       </c>
       <c r="G18">
-        <v>5.333466065161651</v>
+        <v>5.333466065161648</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2359,7 +2359,7 @@
         <v>498</v>
       </c>
       <c r="G19">
-        <v>5.546075179449607</v>
+        <v>5.546075179449605</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2382,7 +2382,7 @@
         <v>498</v>
       </c>
       <c r="G20">
-        <v>5.742444364049678</v>
+        <v>5.742444364049676</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2405,7 +2405,7 @@
         <v>498</v>
       </c>
       <c r="G21">
-        <v>5.663899389669945</v>
+        <v>5.663899389669947</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2428,7 +2428,7 @@
         <v>499</v>
       </c>
       <c r="G22">
-        <v>5.663899389669945</v>
+        <v>5.663899389669947</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2451,7 +2451,7 @@
         <v>498</v>
       </c>
       <c r="G23">
-        <v>5.997033252462844</v>
+        <v>5.997033252462841</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2474,7 +2474,7 @@
         <v>498</v>
       </c>
       <c r="G24">
-        <v>5.419514715577541</v>
+        <v>5.419514715577538</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2497,7 +2497,7 @@
         <v>500</v>
       </c>
       <c r="G25">
-        <v>6.035058271470039</v>
+        <v>6.035058271470038</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2566,7 +2566,7 @@
         <v>500</v>
       </c>
       <c r="G28">
-        <v>5.951485088637966</v>
+        <v>5.951485088637965</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2635,7 +2635,7 @@
         <v>500</v>
       </c>
       <c r="G31">
-        <v>6.077596434923474</v>
+        <v>6.077596434923473</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2658,7 +2658,7 @@
         <v>500</v>
       </c>
       <c r="G32">
-        <v>6.086869901855766</v>
+        <v>6.086869901855765</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2681,7 +2681,7 @@
         <v>500</v>
       </c>
       <c r="G33">
-        <v>5.806227142402055</v>
+        <v>5.806227142402054</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2704,7 +2704,7 @@
         <v>500</v>
       </c>
       <c r="G34">
-        <v>6.049579131345139</v>
+        <v>6.049579131345138</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2727,7 +2727,7 @@
         <v>500</v>
       </c>
       <c r="G35">
-        <v>5.978349799144232</v>
+        <v>5.978349799144231</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2750,7 +2750,7 @@
         <v>500</v>
       </c>
       <c r="G36">
-        <v>6.152313195260836</v>
+        <v>6.152313195260835</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2888,7 +2888,7 @@
         <v>500</v>
       </c>
       <c r="G42">
-        <v>5.731371807659984</v>
+        <v>5.731371807659983</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2934,7 +2934,7 @@
         <v>500</v>
       </c>
       <c r="G44">
-        <v>5.742665564118292</v>
+        <v>5.74266556411829</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2957,7 +2957,7 @@
         <v>501</v>
       </c>
       <c r="G45">
-        <v>6.223278252198099</v>
+        <v>6.223278252198101</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2980,7 +2980,7 @@
         <v>501</v>
       </c>
       <c r="G46">
-        <v>7.210840487758438</v>
+        <v>7.210840487758439</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3000,7 +3000,7 @@
         <v>501</v>
       </c>
       <c r="G47">
-        <v>5.678839472612252</v>
+        <v>5.678839472612256</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3023,7 +3023,7 @@
         <v>501</v>
       </c>
       <c r="G48">
-        <v>5.967276976530056</v>
+        <v>5.96727697653006</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3046,7 +3046,7 @@
         <v>501</v>
       </c>
       <c r="G49">
-        <v>6.059724138016251</v>
+        <v>6.059724138016255</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3069,7 +3069,7 @@
         <v>501</v>
       </c>
       <c r="G50">
-        <v>5.301339887667169</v>
+        <v>5.301339887667173</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3092,7 +3092,7 @@
         <v>501</v>
       </c>
       <c r="G51">
-        <v>6.416444659391422</v>
+        <v>6.416444659391424</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3115,7 +3115,7 @@
         <v>501</v>
       </c>
       <c r="G52">
-        <v>5.741780840846792</v>
+        <v>5.741780840846795</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3138,7 +3138,7 @@
         <v>501</v>
       </c>
       <c r="G53">
-        <v>5.13328725749126</v>
+        <v>5.133287257491266</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3161,7 +3161,7 @@
         <v>501</v>
       </c>
       <c r="G54">
-        <v>4.194615429296252</v>
+        <v>4.194615429296258</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3184,7 +3184,7 @@
         <v>501</v>
       </c>
       <c r="G55">
-        <v>6.008836485445499</v>
+        <v>6.008836485445503</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3207,7 +3207,7 @@
         <v>501</v>
       </c>
       <c r="G56">
-        <v>5.64992127882239</v>
+        <v>5.649921278822393</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3230,7 +3230,7 @@
         <v>502</v>
       </c>
       <c r="G57">
-        <v>5.64992127882239</v>
+        <v>5.649921278822393</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3253,7 +3253,7 @@
         <v>501</v>
       </c>
       <c r="G58">
-        <v>5.928692554916201</v>
+        <v>5.928692554916204</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3276,7 +3276,7 @@
         <v>501</v>
       </c>
       <c r="G59">
-        <v>5.703846095487956</v>
+        <v>5.703846095487959</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3299,7 +3299,7 @@
         <v>501</v>
       </c>
       <c r="G60">
-        <v>6.087865506236699</v>
+        <v>6.087865506236703</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3319,7 +3319,7 @@
         <v>501</v>
       </c>
       <c r="G61">
-        <v>5.819533068111481</v>
+        <v>5.819533068111484</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3342,7 +3342,7 @@
         <v>501</v>
       </c>
       <c r="G62">
-        <v>6.270408971862676</v>
+        <v>6.270408971862681</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3365,7 +3365,7 @@
         <v>501</v>
       </c>
       <c r="G63">
-        <v>6.34434741317772</v>
+        <v>6.344347413177723</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3388,7 +3388,7 @@
         <v>501</v>
       </c>
       <c r="G64">
-        <v>5.783554679941353</v>
+        <v>5.783554679941357</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3408,7 +3408,7 @@
         <v>501</v>
       </c>
       <c r="G65">
-        <v>5.894751363780666</v>
+        <v>5.894751363780672</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3431,7 +3431,7 @@
         <v>501</v>
       </c>
       <c r="G66">
-        <v>5.72732616385426</v>
+        <v>5.727326163854263</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3454,7 +3454,7 @@
         <v>501</v>
       </c>
       <c r="G67">
-        <v>5.837655157223275</v>
+        <v>5.837655157223279</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3497,7 +3497,7 @@
         <v>503</v>
       </c>
       <c r="G69">
-        <v>5.944183900377327</v>
+        <v>5.944183900377331</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3517,7 +3517,7 @@
         <v>504</v>
       </c>
       <c r="G70">
-        <v>5.944183900377327</v>
+        <v>5.944183900377331</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3540,7 +3540,7 @@
         <v>503</v>
       </c>
       <c r="G71">
-        <v>5.555620093957155</v>
+        <v>5.555620093957156</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3586,7 +3586,7 @@
         <v>503</v>
       </c>
       <c r="G73">
-        <v>6.161860184011082</v>
+        <v>6.161860184011083</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3609,7 +3609,7 @@
         <v>503</v>
       </c>
       <c r="G74">
-        <v>5.554365231962242</v>
+        <v>5.554365231962243</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3632,7 +3632,7 @@
         <v>503</v>
       </c>
       <c r="G75">
-        <v>5.497149177395892</v>
+        <v>5.497149177395893</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3678,7 +3678,7 @@
         <v>503</v>
       </c>
       <c r="G77">
-        <v>5.725559933284475</v>
+        <v>5.725559933284478</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3701,7 +3701,7 @@
         <v>504</v>
       </c>
       <c r="G78">
-        <v>5.725559933284475</v>
+        <v>5.725559933284478</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3790,7 +3790,7 @@
         <v>503</v>
       </c>
       <c r="G82">
-        <v>5.973160435119402</v>
+        <v>5.973160435119404</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3836,7 +3836,7 @@
         <v>503</v>
       </c>
       <c r="G84">
-        <v>5.46084551003739</v>
+        <v>5.460845510037391</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3859,7 +3859,7 @@
         <v>503</v>
       </c>
       <c r="G85">
-        <v>6.02708639824005</v>
+        <v>6.027086398240051</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3905,7 +3905,7 @@
         <v>503</v>
       </c>
       <c r="G87">
-        <v>5.206676883842166</v>
+        <v>5.206676883842167</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3997,7 +3997,7 @@
         <v>503</v>
       </c>
       <c r="G91">
-        <v>5.647117838517702</v>
+        <v>5.647117838517701</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4020,7 +4020,7 @@
         <v>499</v>
       </c>
       <c r="G92">
-        <v>5.247180743873228</v>
+        <v>5.24718074387323</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4043,7 +4043,7 @@
         <v>499</v>
       </c>
       <c r="G93">
-        <v>5.241113603426132</v>
+        <v>5.241113603426134</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4066,7 +4066,7 @@
         <v>499</v>
       </c>
       <c r="G94">
-        <v>5.54307290602588</v>
+        <v>5.543072906025881</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4089,7 +4089,7 @@
         <v>499</v>
       </c>
       <c r="G95">
-        <v>5.247180743873228</v>
+        <v>5.24718074387323</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4112,7 +4112,7 @@
         <v>499</v>
       </c>
       <c r="G96">
-        <v>5.191966828064339</v>
+        <v>5.19196682806434</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4155,7 +4155,7 @@
         <v>499</v>
       </c>
       <c r="G98">
-        <v>5.48942818036882</v>
+        <v>5.489428180368821</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4178,7 +4178,7 @@
         <v>499</v>
       </c>
       <c r="G99">
-        <v>5.655887854098</v>
+        <v>5.655887854098002</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4201,7 +4201,7 @@
         <v>499</v>
       </c>
       <c r="G100">
-        <v>5.445508022514149</v>
+        <v>5.445508022514151</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4224,7 +4224,7 @@
         <v>499</v>
       </c>
       <c r="G101">
-        <v>5.369010657244374</v>
+        <v>5.369010657244376</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4247,7 +4247,7 @@
         <v>499</v>
       </c>
       <c r="G102">
-        <v>5.428640795397269</v>
+        <v>5.42864079539727</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4270,7 +4270,7 @@
         <v>499</v>
       </c>
       <c r="G103">
-        <v>5.616787754610938</v>
+        <v>5.616787754610939</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4293,7 +4293,7 @@
         <v>499</v>
       </c>
       <c r="G104">
-        <v>5.088828472398123</v>
+        <v>5.088828472398124</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4316,7 +4316,7 @@
         <v>499</v>
       </c>
       <c r="G105">
-        <v>5.297692365107812</v>
+        <v>5.297692365107814</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4336,7 +4336,7 @@
         <v>499</v>
       </c>
       <c r="G106">
-        <v>5.539035531833985</v>
+        <v>5.539035531833987</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4359,7 +4359,7 @@
         <v>499</v>
       </c>
       <c r="G107">
-        <v>5.182208509203083</v>
+        <v>5.182208509203084</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4382,7 +4382,7 @@
         <v>499</v>
       </c>
       <c r="G108">
-        <v>5.338736450090139</v>
+        <v>5.338736450090141</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4405,7 +4405,7 @@
         <v>499</v>
       </c>
       <c r="G109">
-        <v>5.710075880638275</v>
+        <v>5.710075880638277</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4425,7 +4425,7 @@
         <v>499</v>
       </c>
       <c r="G110">
-        <v>5.431704543561927</v>
+        <v>5.431704543561928</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4445,7 +4445,7 @@
         <v>505</v>
       </c>
       <c r="G111">
-        <v>5.991226040598183</v>
+        <v>5.991226040598185</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4468,7 +4468,7 @@
         <v>505</v>
       </c>
       <c r="G112">
-        <v>5.999242600015753</v>
+        <v>5.999242600015756</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4491,7 +4491,7 @@
         <v>505</v>
       </c>
       <c r="G113">
-        <v>5.821820503617231</v>
+        <v>5.821820503617234</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4514,7 +4514,7 @@
         <v>505</v>
       </c>
       <c r="G114">
-        <v>6.002933781421736</v>
+        <v>6.002933781421739</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4537,7 +4537,7 @@
         <v>505</v>
       </c>
       <c r="G115">
-        <v>5.874911636229245</v>
+        <v>5.874911636229248</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4560,7 +4560,7 @@
         <v>505</v>
       </c>
       <c r="G116">
-        <v>6.318678628732992</v>
+        <v>6.318678628732995</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4583,7 +4583,7 @@
         <v>505</v>
       </c>
       <c r="G117">
-        <v>5.873656774234332</v>
+        <v>5.873656774234335</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4606,7 +4606,7 @@
         <v>505</v>
       </c>
       <c r="G118">
-        <v>5.892258627052415</v>
+        <v>5.892258627052422</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4629,7 +4629,7 @@
         <v>506</v>
       </c>
       <c r="G119">
-        <v>5.892258627052415</v>
+        <v>5.892258627052422</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4652,7 +4652,7 @@
         <v>505</v>
       </c>
       <c r="G120">
-        <v>5.88097877518043</v>
+        <v>5.880978775180432</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4675,7 +4675,7 @@
         <v>505</v>
       </c>
       <c r="G121">
-        <v>6.348986376866804</v>
+        <v>6.348986376866807</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4698,7 +4698,7 @@
         <v>505</v>
       </c>
       <c r="G122">
-        <v>5.822957479203344</v>
+        <v>5.822957479203348</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4721,7 +4721,7 @@
         <v>505</v>
       </c>
       <c r="G123">
-        <v>6.246862618486968</v>
+        <v>6.24686261848697</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4744,7 +4744,7 @@
         <v>505</v>
       </c>
       <c r="G124">
-        <v>6.058911112985126</v>
+        <v>6.058911112985129</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4767,7 +4767,7 @@
         <v>505</v>
       </c>
       <c r="G125">
-        <v>6.147043582804007</v>
+        <v>6.14704358280401</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4790,7 +4790,7 @@
         <v>505</v>
       </c>
       <c r="G126">
-        <v>5.985592643691263</v>
+        <v>5.985592643691266</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4813,7 +4813,7 @@
         <v>505</v>
       </c>
       <c r="G127">
-        <v>6.133701918939713</v>
+        <v>6.133701918939716</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4836,7 +4836,7 @@
         <v>505</v>
       </c>
       <c r="G128">
-        <v>5.92301664378251</v>
+        <v>5.923016643782511</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4859,7 +4859,7 @@
         <v>505</v>
       </c>
       <c r="G129">
-        <v>5.899454847464943</v>
+        <v>5.899454847464947</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4925,7 +4925,7 @@
         <v>505</v>
       </c>
       <c r="G132">
-        <v>5.739905672659465</v>
+        <v>5.739905672659468</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4948,7 +4948,7 @@
         <v>505</v>
       </c>
       <c r="G133">
-        <v>5.903713531376169</v>
+        <v>5.903713531376172</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4971,7 +4971,7 @@
         <v>502</v>
       </c>
       <c r="G134">
-        <v>5.892511520148492</v>
+        <v>5.892511520148494</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4994,7 +4994,7 @@
         <v>502</v>
       </c>
       <c r="G135">
-        <v>6.005210412087377</v>
+        <v>6.005210412087378</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5017,7 +5017,7 @@
         <v>502</v>
       </c>
       <c r="G136">
-        <v>6.416640474804778</v>
+        <v>6.416640474804779</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5040,7 +5040,7 @@
         <v>502</v>
       </c>
       <c r="G137">
-        <v>5.833413173337727</v>
+        <v>5.83341317333773</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5063,7 +5063,7 @@
         <v>502</v>
       </c>
       <c r="G138">
-        <v>5.943660435763657</v>
+        <v>5.94366043576366</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5086,7 +5086,7 @@
         <v>502</v>
       </c>
       <c r="G139">
-        <v>5.869288261089429</v>
+        <v>5.869288261089432</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5109,7 +5109,7 @@
         <v>502</v>
       </c>
       <c r="G140">
-        <v>5.755071637377145</v>
+        <v>5.755071637377148</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5132,7 +5132,7 @@
         <v>502</v>
       </c>
       <c r="G141">
-        <v>5.922757912686889</v>
+        <v>5.922757912686892</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5155,7 +5155,7 @@
         <v>502</v>
       </c>
       <c r="G142">
-        <v>5.826031247639195</v>
+        <v>5.826031247639198</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5178,7 +5178,7 @@
         <v>502</v>
       </c>
       <c r="G143">
-        <v>5.916015356305604</v>
+        <v>5.916015356305607</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5201,7 +5201,7 @@
         <v>502</v>
       </c>
       <c r="G144">
-        <v>5.980714355296775</v>
+        <v>5.980714355296778</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5224,7 +5224,7 @@
         <v>502</v>
       </c>
       <c r="G145">
-        <v>5.773687393285639</v>
+        <v>5.773687393285642</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5247,7 +5247,7 @@
         <v>502</v>
       </c>
       <c r="G146">
-        <v>5.814701775530041</v>
+        <v>5.814701775530042</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5267,7 +5267,7 @@
         <v>502</v>
       </c>
       <c r="G147">
-        <v>5.903805273614976</v>
+        <v>5.903805273614979</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5290,7 +5290,7 @@
         <v>502</v>
       </c>
       <c r="G148">
-        <v>5.740640728175422</v>
+        <v>5.740640728175425</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5313,7 +5313,7 @@
         <v>502</v>
       </c>
       <c r="G149">
-        <v>6.050242987932841</v>
+        <v>6.050242987932844</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5336,7 +5336,7 @@
         <v>502</v>
       </c>
       <c r="G150">
-        <v>6.070264947344157</v>
+        <v>6.070264947344159</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5359,7 +5359,7 @@
         <v>502</v>
       </c>
       <c r="G151">
-        <v>5.973149684416604</v>
+        <v>5.973149684416607</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5382,7 +5382,7 @@
         <v>508</v>
       </c>
       <c r="G152">
-        <v>6.184522567559054</v>
+        <v>6.184522567559056</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5405,7 +5405,7 @@
         <v>508</v>
       </c>
       <c r="G153">
-        <v>6.604378370586922</v>
+        <v>6.604378370586924</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5428,7 +5428,7 @@
         <v>508</v>
       </c>
       <c r="G154">
-        <v>5.766330588541631</v>
+        <v>5.766330588541632</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5451,7 +5451,7 @@
         <v>508</v>
       </c>
       <c r="G155">
-        <v>6.062908142600149</v>
+        <v>6.06290814260015</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5474,7 +5474,7 @@
         <v>508</v>
       </c>
       <c r="G156">
-        <v>6.032799243613125</v>
+        <v>6.032799243613128</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5566,7 +5566,7 @@
         <v>508</v>
       </c>
       <c r="G160">
-        <v>6.190087139217926</v>
+        <v>6.190087139217929</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5612,7 +5612,7 @@
         <v>508</v>
       </c>
       <c r="G162">
-        <v>6.144173740109586</v>
+        <v>6.144173740109587</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5635,7 +5635,7 @@
         <v>508</v>
       </c>
       <c r="G163">
-        <v>6.368438775605098</v>
+        <v>6.368438775605099</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5658,7 +5658,7 @@
         <v>508</v>
       </c>
       <c r="G164">
-        <v>5.806514420825913</v>
+        <v>5.806514420825914</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5681,7 +5681,7 @@
         <v>508</v>
       </c>
       <c r="G165">
-        <v>5.674209997762343</v>
+        <v>5.674209997762346</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5773,7 +5773,7 @@
         <v>508</v>
       </c>
       <c r="G169">
-        <v>6.1825999599333</v>
+        <v>6.182599959933301</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5796,7 +5796,7 @@
         <v>508</v>
       </c>
       <c r="G170">
-        <v>6.040935158513417</v>
+        <v>6.040935158513418</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5819,7 +5819,7 @@
         <v>508</v>
       </c>
       <c r="G171">
-        <v>6.000841688028008</v>
+        <v>6.00084168802801</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5842,7 +5842,7 @@
         <v>508</v>
       </c>
       <c r="G172">
-        <v>6.213384385962501</v>
+        <v>6.213384385962503</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5885,7 +5885,7 @@
         <v>507</v>
       </c>
       <c r="G174">
-        <v>6.224625465461117</v>
+        <v>6.224625465461119</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5908,7 +5908,7 @@
         <v>507</v>
       </c>
       <c r="G175">
-        <v>6.422803672043263</v>
+        <v>6.422803672043265</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5931,7 +5931,7 @@
         <v>507</v>
       </c>
       <c r="G176">
-        <v>6.476872709735117</v>
+        <v>6.476872709735118</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5954,7 +5954,7 @@
         <v>507</v>
       </c>
       <c r="G177">
-        <v>6.256363361224643</v>
+        <v>6.256363361224646</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5977,7 +5977,7 @@
         <v>507</v>
       </c>
       <c r="G178">
-        <v>6.188790289170437</v>
+        <v>6.188790289170439</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6000,7 +6000,7 @@
         <v>507</v>
       </c>
       <c r="G179">
-        <v>6.592559682358641</v>
+        <v>6.592559682358643</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6023,7 +6023,7 @@
         <v>507</v>
       </c>
       <c r="G180">
-        <v>6.266084134159487</v>
+        <v>6.266084134159489</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -6043,7 +6043,7 @@
         <v>507</v>
       </c>
       <c r="G181">
-        <v>6.321417899473247</v>
+        <v>6.321417899473249</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6086,7 +6086,7 @@
         <v>507</v>
       </c>
       <c r="G183">
-        <v>6.108012439782432</v>
+        <v>6.108012439782434</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6109,7 +6109,7 @@
         <v>507</v>
       </c>
       <c r="G184">
-        <v>6.24489872801282</v>
+        <v>6.244898728012823</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6132,7 +6132,7 @@
         <v>507</v>
       </c>
       <c r="G185">
-        <v>6.126134528894227</v>
+        <v>6.126134528894229</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6155,7 +6155,7 @@
         <v>507</v>
       </c>
       <c r="G186">
-        <v>6.929862281367961</v>
+        <v>6.929862281367963</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6178,7 +6178,7 @@
         <v>502</v>
       </c>
       <c r="G187">
-        <v>6.929862281367961</v>
+        <v>6.929862281367963</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6224,7 +6224,7 @@
         <v>507</v>
       </c>
       <c r="G189">
-        <v>5.782750873993968</v>
+        <v>5.78275087399397</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6247,7 +6247,7 @@
         <v>502</v>
       </c>
       <c r="G190">
-        <v>5.782750873993968</v>
+        <v>5.78275087399397</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6270,7 +6270,7 @@
         <v>507</v>
       </c>
       <c r="G191">
-        <v>6.182095721465663</v>
+        <v>6.182095721465665</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6290,7 +6290,7 @@
         <v>507</v>
       </c>
       <c r="G192">
-        <v>6.199036353161301</v>
+        <v>6.199036353161303</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6313,7 +6313,7 @@
         <v>507</v>
       </c>
       <c r="G193">
-        <v>6.130357497154605</v>
+        <v>6.130357497154606</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6336,7 +6336,7 @@
         <v>507</v>
       </c>
       <c r="G194">
-        <v>6.130357497154605</v>
+        <v>6.130357497154606</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6359,7 +6359,7 @@
         <v>507</v>
       </c>
       <c r="G195">
-        <v>6.277025221656204</v>
+        <v>6.277025221656207</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6382,7 +6382,7 @@
         <v>507</v>
       </c>
       <c r="G196">
-        <v>6.458137105817666</v>
+        <v>6.458137105817667</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6442,7 +6442,7 @@
         <v>510</v>
       </c>
       <c r="G199">
-        <v>6.246503902711591</v>
+        <v>6.246503902711592</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6488,7 +6488,7 @@
         <v>510</v>
       </c>
       <c r="G201">
-        <v>6.295601705848321</v>
+        <v>6.29560170584832</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6511,7 +6511,7 @@
         <v>510</v>
       </c>
       <c r="G202">
-        <v>6.144052902047312</v>
+        <v>6.144052902047313</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6580,7 +6580,7 @@
         <v>510</v>
       </c>
       <c r="G205">
-        <v>6.240149476183961</v>
+        <v>6.240149476183963</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6626,7 +6626,7 @@
         <v>510</v>
       </c>
       <c r="G207">
-        <v>6.096523072982766</v>
+        <v>6.096523072982765</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6649,7 +6649,7 @@
         <v>510</v>
       </c>
       <c r="G208">
-        <v>5.640942267163988</v>
+        <v>5.640942267163989</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6735,7 +6735,7 @@
         <v>510</v>
       </c>
       <c r="G212">
-        <v>6.267557939631314</v>
+        <v>6.267557939631313</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6758,7 +6758,7 @@
         <v>510</v>
       </c>
       <c r="G213">
-        <v>6.244067584796434</v>
+        <v>6.244067584796435</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6893,7 +6893,7 @@
         <v>511</v>
       </c>
       <c r="G219">
-        <v>7.280274614077384</v>
+        <v>7.28027461407738</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6916,7 +6916,7 @@
         <v>511</v>
       </c>
       <c r="G220">
-        <v>6.248528188163031</v>
+        <v>6.248528188163029</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6939,7 +6939,7 @@
         <v>511</v>
       </c>
       <c r="G221">
-        <v>6.024188509104206</v>
+        <v>6.024188509104201</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6962,7 +6962,7 @@
         <v>511</v>
       </c>
       <c r="G222">
-        <v>6.31148610099628</v>
+        <v>6.311486100996277</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6985,7 +6985,7 @@
         <v>511</v>
       </c>
       <c r="G223">
-        <v>6.258550535035894</v>
+        <v>6.258550535035891</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7008,7 +7008,7 @@
         <v>511</v>
       </c>
       <c r="G224">
-        <v>6.673870046695224</v>
+        <v>6.673870046695221</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7028,7 +7028,7 @@
         <v>511</v>
       </c>
       <c r="G225">
-        <v>6.111776648429911</v>
+        <v>6.111776648429908</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7051,7 +7051,7 @@
         <v>511</v>
       </c>
       <c r="G226">
-        <v>6.377696653062631</v>
+        <v>6.377696653062626</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7074,7 +7074,7 @@
         <v>511</v>
       </c>
       <c r="G227">
-        <v>6.505699400281833</v>
+        <v>6.505699400281829</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7097,7 +7097,7 @@
         <v>511</v>
       </c>
       <c r="G228">
-        <v>6.463812646090123</v>
+        <v>6.463812646090119</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7120,7 +7120,7 @@
         <v>511</v>
       </c>
       <c r="G229">
-        <v>6.063894597698199</v>
+        <v>6.063894597698196</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7143,7 +7143,7 @@
         <v>511</v>
       </c>
       <c r="G230">
-        <v>6.341698423293834</v>
+        <v>6.341698423293831</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7166,7 +7166,7 @@
         <v>511</v>
       </c>
       <c r="G231">
-        <v>6.454821448581907</v>
+        <v>6.454821448581903</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7189,7 +7189,7 @@
         <v>511</v>
       </c>
       <c r="G232">
-        <v>5.855846860091763</v>
+        <v>5.855846860091765</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7212,7 +7212,7 @@
         <v>504</v>
       </c>
       <c r="G233">
-        <v>5.855846860091763</v>
+        <v>5.855846860091765</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7232,7 +7232,7 @@
         <v>511</v>
       </c>
       <c r="G234">
-        <v>6.547178657898813</v>
+        <v>6.54717865789881</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7255,7 +7255,7 @@
         <v>511</v>
       </c>
       <c r="G235">
-        <v>6.445376890682862</v>
+        <v>6.445376890682857</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -7278,7 +7278,7 @@
         <v>511</v>
       </c>
       <c r="G236">
-        <v>6.359936309101823</v>
+        <v>6.359936309101819</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7301,7 +7301,7 @@
         <v>511</v>
       </c>
       <c r="G237">
-        <v>6.388871532084026</v>
+        <v>6.388871532084023</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7324,7 +7324,7 @@
         <v>511</v>
       </c>
       <c r="G238">
-        <v>6.387942711069847</v>
+        <v>6.387942711069845</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7344,7 +7344,7 @@
         <v>511</v>
       </c>
       <c r="G239">
-        <v>6.430318549735726</v>
+        <v>6.430318549735722</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -7367,7 +7367,7 @@
         <v>511</v>
       </c>
       <c r="G240">
-        <v>6.359748636801331</v>
+        <v>6.359748636801328</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7390,7 +7390,7 @@
         <v>512</v>
       </c>
       <c r="G241">
-        <v>6.350843466051739</v>
+        <v>6.35084346605174</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7413,7 +7413,7 @@
         <v>512</v>
       </c>
       <c r="G242">
-        <v>6.217559205937345</v>
+        <v>6.217559205937346</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7436,7 +7436,7 @@
         <v>512</v>
       </c>
       <c r="G243">
-        <v>6.426793298747711</v>
+        <v>6.426793298747712</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7459,7 +7459,7 @@
         <v>512</v>
       </c>
       <c r="G244">
-        <v>6.388382635486417</v>
+        <v>6.388382635486416</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7502,7 +7502,7 @@
         <v>512</v>
       </c>
       <c r="G246">
-        <v>5.89998753821563</v>
+        <v>5.899987538215631</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7571,7 +7571,7 @@
         <v>512</v>
       </c>
       <c r="G249">
-        <v>6.666503617479223</v>
+        <v>6.666503617479221</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7594,7 +7594,7 @@
         <v>512</v>
       </c>
       <c r="G250">
-        <v>6.103634676053366</v>
+        <v>6.103634676053365</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7640,7 +7640,7 @@
         <v>512</v>
       </c>
       <c r="G252">
-        <v>6.241054721713777</v>
+        <v>6.241054721713778</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7775,7 +7775,7 @@
         <v>512</v>
       </c>
       <c r="G258">
-        <v>7.036986646547473</v>
+        <v>7.036986646547471</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7821,7 +7821,7 @@
         <v>512</v>
       </c>
       <c r="G260">
-        <v>6.489369298656465</v>
+        <v>6.489369298656466</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7844,7 +7844,7 @@
         <v>512</v>
       </c>
       <c r="G261">
-        <v>6.304302633702074</v>
+        <v>6.304302633702075</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -7867,7 +7867,7 @@
         <v>513</v>
       </c>
       <c r="G262">
-        <v>6.235267896621831</v>
+        <v>6.235267896621834</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -7913,7 +7913,7 @@
         <v>513</v>
       </c>
       <c r="G264">
-        <v>6.00532092312412</v>
+        <v>6.005320923124121</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7936,7 +7936,7 @@
         <v>513</v>
       </c>
       <c r="G265">
-        <v>5.861640038826692</v>
+        <v>5.861640038826693</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -7979,7 +7979,7 @@
         <v>513</v>
       </c>
       <c r="G267">
-        <v>6.017877200096573</v>
+        <v>6.017877200096575</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -8002,7 +8002,7 @@
         <v>499</v>
       </c>
       <c r="G268">
-        <v>6.017877200096573</v>
+        <v>6.017877200096575</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -8094,7 +8094,7 @@
         <v>513</v>
       </c>
       <c r="G272">
-        <v>6.244132044147465</v>
+        <v>6.244132044147466</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -8117,7 +8117,7 @@
         <v>513</v>
       </c>
       <c r="G273">
-        <v>6.267373234455418</v>
+        <v>6.267373234455417</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -8140,7 +8140,7 @@
         <v>513</v>
       </c>
       <c r="G274">
-        <v>6.017877200096573</v>
+        <v>6.017877200096575</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -8163,7 +8163,7 @@
         <v>513</v>
       </c>
       <c r="G275">
-        <v>6.222866385635404</v>
+        <v>6.222866385635407</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -8186,7 +8186,7 @@
         <v>513</v>
       </c>
       <c r="G276">
-        <v>5.412858865432184</v>
+        <v>5.412858865432185</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -8232,7 +8232,7 @@
         <v>513</v>
       </c>
       <c r="G278">
-        <v>6.004394328649876</v>
+        <v>6.004394328649878</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -8278,7 +8278,7 @@
         <v>513</v>
       </c>
       <c r="G280">
-        <v>5.538068828401967</v>
+        <v>5.538068828401969</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -8301,7 +8301,7 @@
         <v>513</v>
       </c>
       <c r="G281">
-        <v>5.897912002410646</v>
+        <v>5.897912002410647</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -8324,7 +8324,7 @@
         <v>513</v>
       </c>
       <c r="G282">
-        <v>6.003139462167227</v>
+        <v>6.003139462167229</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -8347,7 +8347,7 @@
         <v>513</v>
       </c>
       <c r="G283">
-        <v>6.020267077573354</v>
+        <v>6.020267077573355</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -8367,7 +8367,7 @@
         <v>513</v>
       </c>
       <c r="G284">
-        <v>6.242096229275318</v>
+        <v>6.24209622927532</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -8433,7 +8433,7 @@
         <v>514</v>
       </c>
       <c r="G287">
-        <v>5.871437519226734</v>
+        <v>5.871437519226732</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -8456,7 +8456,7 @@
         <v>514</v>
       </c>
       <c r="G288">
-        <v>6.070345786182867</v>
+        <v>6.070345786182865</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -8522,7 +8522,7 @@
         <v>514</v>
       </c>
       <c r="G291">
-        <v>5.350846142420872</v>
+        <v>5.350846142420871</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -8545,7 +8545,7 @@
         <v>514</v>
       </c>
       <c r="G292">
-        <v>6.606107690433767</v>
+        <v>6.606107690433766</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -8568,7 +8568,7 @@
         <v>514</v>
       </c>
       <c r="G293">
-        <v>6.241026025261489</v>
+        <v>6.241026025261488</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -8591,7 +8591,7 @@
         <v>514</v>
       </c>
       <c r="G294">
-        <v>6.235526390311459</v>
+        <v>6.235526390311457</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -8611,7 +8611,7 @@
         <v>514</v>
       </c>
       <c r="G295">
-        <v>5.97146794470344</v>
+        <v>5.971467944703439</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -8657,7 +8657,7 @@
         <v>514</v>
       </c>
       <c r="G297">
-        <v>5.939031005514982</v>
+        <v>5.939031005514981</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -8723,7 +8723,7 @@
         <v>514</v>
       </c>
       <c r="G300">
-        <v>5.922586434841899</v>
+        <v>5.922586434841898</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -8746,7 +8746,7 @@
         <v>514</v>
       </c>
       <c r="G301">
-        <v>5.922586434841899</v>
+        <v>5.922586434841898</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -8769,7 +8769,7 @@
         <v>514</v>
       </c>
       <c r="G302">
-        <v>6.119752096169422</v>
+        <v>6.11975209616942</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -8829,7 +8829,7 @@
         <v>514</v>
       </c>
       <c r="G305">
-        <v>6.019614499143044</v>
+        <v>6.019614499143043</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -8852,7 +8852,7 @@
         <v>509</v>
       </c>
       <c r="G306">
-        <v>5.460347514361703</v>
+        <v>5.460347514361704</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -8875,7 +8875,7 @@
         <v>509</v>
       </c>
       <c r="G307">
-        <v>5.689025257897882</v>
+        <v>5.689025257897883</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -8898,7 +8898,7 @@
         <v>509</v>
       </c>
       <c r="G308">
-        <v>5.511122395091271</v>
+        <v>5.511122395091272</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -8921,7 +8921,7 @@
         <v>509</v>
       </c>
       <c r="G309">
-        <v>5.10082429001993</v>
+        <v>5.100824290019931</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -8944,7 +8944,7 @@
         <v>509</v>
       </c>
       <c r="G310">
-        <v>5.476400829020303</v>
+        <v>5.476400829020304</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -8990,7 +8990,7 @@
         <v>509</v>
       </c>
       <c r="G312">
-        <v>5.195345695103634</v>
+        <v>5.195345695103635</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -9013,7 +9013,7 @@
         <v>509</v>
       </c>
       <c r="G313">
-        <v>5.442328940700265</v>
+        <v>5.442328940700266</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -9059,7 +9059,7 @@
         <v>509</v>
       </c>
       <c r="G315">
-        <v>5.511891475052646</v>
+        <v>5.511891475052645</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -9082,7 +9082,7 @@
         <v>509</v>
       </c>
       <c r="G316">
-        <v>5.476400829020303</v>
+        <v>5.476400829020304</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -9128,7 +9128,7 @@
         <v>509</v>
       </c>
       <c r="G318">
-        <v>5.580497291171947</v>
+        <v>5.580497291171948</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -9151,7 +9151,7 @@
         <v>515</v>
       </c>
       <c r="G319">
-        <v>5.580497291171947</v>
+        <v>5.580497291171948</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -9174,7 +9174,7 @@
         <v>509</v>
       </c>
       <c r="G320">
-        <v>5.664473591965083</v>
+        <v>5.664473591965084</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -9197,7 +9197,7 @@
         <v>509</v>
       </c>
       <c r="G321">
-        <v>5.807241562386415</v>
+        <v>5.807241562386416</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -9220,7 +9220,7 @@
         <v>509</v>
       </c>
       <c r="G322">
-        <v>5.114627768972152</v>
+        <v>5.114627768972154</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -9289,7 +9289,7 @@
         <v>509</v>
       </c>
       <c r="G325">
-        <v>5.488044834065022</v>
+        <v>5.488044834065023</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -9335,7 +9335,7 @@
         <v>509</v>
       </c>
       <c r="G327">
-        <v>5.839251043507325</v>
+        <v>5.839251043507328</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -9358,7 +9358,7 @@
         <v>504</v>
       </c>
       <c r="G328">
-        <v>5.839251043507325</v>
+        <v>5.839251043507328</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -9404,7 +9404,7 @@
         <v>509</v>
       </c>
       <c r="G330">
-        <v>5.659495692367681</v>
+        <v>5.659495692367683</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -9427,7 +9427,7 @@
         <v>516</v>
       </c>
       <c r="G331">
-        <v>6.208921852613297</v>
+        <v>6.208921852613298</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -9470,7 +9470,7 @@
         <v>516</v>
       </c>
       <c r="G333">
-        <v>6.781791702761272</v>
+        <v>6.78179170276127</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -9516,7 +9516,7 @@
         <v>516</v>
       </c>
       <c r="G335">
-        <v>6.566168115430056</v>
+        <v>6.566168115430054</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -9539,7 +9539,7 @@
         <v>516</v>
       </c>
       <c r="G336">
-        <v>6.676542085116168</v>
+        <v>6.676542085116166</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -9585,7 +9585,7 @@
         <v>516</v>
       </c>
       <c r="G338">
-        <v>6.472046861691493</v>
+        <v>6.47204686169149</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -9608,7 +9608,7 @@
         <v>502</v>
       </c>
       <c r="G339">
-        <v>6.472046861691493</v>
+        <v>6.47204686169149</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -9654,7 +9654,7 @@
         <v>516</v>
       </c>
       <c r="G341">
-        <v>6.024984742394031</v>
+        <v>6.024984742394029</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -9677,7 +9677,7 @@
         <v>516</v>
       </c>
       <c r="G342">
-        <v>5.822472615550427</v>
+        <v>5.822472615550426</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -9769,7 +9769,7 @@
         <v>516</v>
       </c>
       <c r="G346">
-        <v>6.146252973071111</v>
+        <v>6.146252973071112</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -9792,7 +9792,7 @@
         <v>516</v>
       </c>
       <c r="G347">
-        <v>6.279780798838754</v>
+        <v>6.279780798838753</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -9832,7 +9832,7 @@
         <v>516</v>
       </c>
       <c r="G349">
-        <v>5.677296394273955</v>
+        <v>5.677296394273954</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -9855,7 +9855,7 @@
         <v>516</v>
       </c>
       <c r="G350">
-        <v>6.230914597583188</v>
+        <v>6.230914597583186</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -9878,7 +9878,7 @@
         <v>502</v>
       </c>
       <c r="G351">
-        <v>6.230914597583188</v>
+        <v>6.230914597583186</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -9924,7 +9924,7 @@
         <v>516</v>
       </c>
       <c r="G353">
-        <v>5.689575615467245</v>
+        <v>5.689575615467246</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -9970,7 +9970,7 @@
         <v>504</v>
       </c>
       <c r="G355">
-        <v>5.612450280898952</v>
+        <v>5.612450280898955</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -9993,7 +9993,7 @@
         <v>504</v>
       </c>
       <c r="G356">
-        <v>5.872618448301273</v>
+        <v>5.872618448301276</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -10016,7 +10016,7 @@
         <v>504</v>
       </c>
       <c r="G357">
-        <v>5.771889587703106</v>
+        <v>5.77188958770311</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -10036,7 +10036,7 @@
         <v>504</v>
       </c>
       <c r="G358">
-        <v>6.135425687977771</v>
+        <v>6.135425687977773</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -10082,7 +10082,7 @@
         <v>504</v>
       </c>
       <c r="G360">
-        <v>5.672677797483671</v>
+        <v>5.672677797483674</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -10105,7 +10105,7 @@
         <v>504</v>
       </c>
       <c r="G361">
-        <v>5.67441101766931</v>
+        <v>5.674411017669312</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -10128,7 +10128,7 @@
         <v>504</v>
       </c>
       <c r="G362">
-        <v>5.885914345012953</v>
+        <v>5.885914345012956</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>504</v>
       </c>
       <c r="G363">
-        <v>6.054098341423982</v>
+        <v>6.054098341423985</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -10174,7 +10174,7 @@
         <v>504</v>
       </c>
       <c r="G364">
-        <v>5.980069286078201</v>
+        <v>5.980069286078203</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -10197,7 +10197,7 @@
         <v>504</v>
       </c>
       <c r="G365">
-        <v>5.413547822273401</v>
+        <v>5.413547822273404</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -10220,7 +10220,7 @@
         <v>504</v>
       </c>
       <c r="G366">
-        <v>5.862492233815278</v>
+        <v>5.862492233815281</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -10243,7 +10243,7 @@
         <v>504</v>
       </c>
       <c r="G367">
-        <v>5.78500108492575</v>
+        <v>5.785001084925752</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -10266,7 +10266,7 @@
         <v>504</v>
       </c>
       <c r="G368">
-        <v>5.785285713336563</v>
+        <v>5.785285713336567</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>504</v>
       </c>
       <c r="G369">
-        <v>5.413547822273401</v>
+        <v>5.413547822273404</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -10312,7 +10312,7 @@
         <v>504</v>
       </c>
       <c r="G370">
-        <v>5.815484120190273</v>
+        <v>5.815484120190276</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -10335,7 +10335,7 @@
         <v>504</v>
       </c>
       <c r="G371">
-        <v>5.712383886077665</v>
+        <v>5.712383886077668</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -10358,7 +10358,7 @@
         <v>504</v>
       </c>
       <c r="G372">
-        <v>5.870856004065817</v>
+        <v>5.87085600406582</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -10381,7 +10381,7 @@
         <v>504</v>
       </c>
       <c r="G373">
-        <v>5.28810253078862</v>
+        <v>5.288102530788624</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -10404,7 +10404,7 @@
         <v>504</v>
       </c>
       <c r="G374">
-        <v>5.866237197721013</v>
+        <v>5.866237197721017</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -10424,7 +10424,7 @@
         <v>504</v>
       </c>
       <c r="G375">
-        <v>5.806411191738972</v>
+        <v>5.806411191738975</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -10447,7 +10447,7 @@
         <v>515</v>
       </c>
       <c r="G376">
-        <v>5.696601889378991</v>
+        <v>5.696601889378993</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -10470,7 +10470,7 @@
         <v>515</v>
       </c>
       <c r="G377">
-        <v>5.609536919240717</v>
+        <v>5.609536919240718</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -10516,7 +10516,7 @@
         <v>515</v>
       </c>
       <c r="G379">
-        <v>5.679008825146221</v>
+        <v>5.679008825146223</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -10608,7 +10608,7 @@
         <v>515</v>
       </c>
       <c r="G383">
-        <v>5.861424789684675</v>
+        <v>5.861424789684676</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -10677,7 +10677,7 @@
         <v>515</v>
       </c>
       <c r="G386">
-        <v>5.59630290888163</v>
+        <v>5.596302908881631</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -10700,7 +10700,7 @@
         <v>515</v>
       </c>
       <c r="G387">
-        <v>5.854616067898195</v>
+        <v>5.854616067898196</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -10723,7 +10723,7 @@
         <v>515</v>
       </c>
       <c r="G388">
-        <v>4.48698642443834</v>
+        <v>4.486986424438342</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -10786,7 +10786,7 @@
         <v>515</v>
       </c>
       <c r="G391">
-        <v>5.663157434300278</v>
+        <v>5.663157434300279</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -10829,7 +10829,7 @@
         <v>515</v>
       </c>
       <c r="G393">
-        <v>5.913414226743902</v>
+        <v>5.913414226743903</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -10875,7 +10875,7 @@
         <v>515</v>
       </c>
       <c r="G395">
-        <v>5.880100468849692</v>
+        <v>5.880100468849694</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -10898,7 +10898,7 @@
         <v>515</v>
       </c>
       <c r="G396">
-        <v>5.687916133948216</v>
+        <v>5.687916133948217</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -10944,7 +10944,7 @@
         <v>517</v>
       </c>
       <c r="G398">
-        <v>5.98408849119109</v>
+        <v>5.984088491191093</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -10987,7 +10987,7 @@
         <v>517</v>
       </c>
       <c r="G400">
-        <v>5.78526937303721</v>
+        <v>5.785269373037211</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -11079,7 +11079,7 @@
         <v>517</v>
       </c>
       <c r="G404">
-        <v>6.552825619069521</v>
+        <v>6.55282561906952</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -11102,7 +11102,7 @@
         <v>517</v>
       </c>
       <c r="G405">
-        <v>5.761558503164957</v>
+        <v>5.761558503164959</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -11125,7 +11125,7 @@
         <v>517</v>
       </c>
       <c r="G406">
-        <v>6.163319943281474</v>
+        <v>6.163319943281473</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -11171,7 +11171,7 @@
         <v>517</v>
       </c>
       <c r="G408">
-        <v>6.077594734785532</v>
+        <v>6.077594734785531</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -11214,7 +11214,7 @@
         <v>517</v>
       </c>
       <c r="G410">
-        <v>6.02214112595055</v>
+        <v>6.022141125950551</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -11257,7 +11257,7 @@
         <v>517</v>
       </c>
       <c r="G412">
-        <v>6.41733365171001</v>
+        <v>6.417333651710008</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -11300,7 +11300,7 @@
         <v>517</v>
       </c>
       <c r="G414">
-        <v>6.0196313989689</v>
+        <v>6.019631398968901</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -11323,7 +11323,7 @@
         <v>517</v>
       </c>
       <c r="G415">
-        <v>6.275445448134966</v>
+        <v>6.275445448134965</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -11369,7 +11369,7 @@
         <v>506</v>
       </c>
       <c r="G417">
-        <v>6.195399385572409</v>
+        <v>6.195399385572412</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -11389,7 +11389,7 @@
         <v>506</v>
       </c>
       <c r="G418">
-        <v>6.499085849382464</v>
+        <v>6.499085849382466</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -11412,7 +11412,7 @@
         <v>506</v>
       </c>
       <c r="G419">
-        <v>5.784959630789193</v>
+        <v>5.784959630789199</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -11435,7 +11435,7 @@
         <v>506</v>
       </c>
       <c r="G420">
-        <v>6.222847158138159</v>
+        <v>6.222847158138164</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -11458,7 +11458,7 @@
         <v>506</v>
       </c>
       <c r="G421">
-        <v>6.31097962795704</v>
+        <v>6.310979627957045</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -11481,7 +11481,7 @@
         <v>506</v>
       </c>
       <c r="G422">
-        <v>6.167164997418463</v>
+        <v>6.167164997418467</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -11504,7 +11504,7 @@
         <v>506</v>
       </c>
       <c r="G423">
-        <v>6.121024577255581</v>
+        <v>6.121024577255586</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -11527,7 +11527,7 @@
         <v>506</v>
       </c>
       <c r="G424">
-        <v>6.460632796995554</v>
+        <v>6.460632796995558</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -11547,7 +11547,7 @@
         <v>506</v>
       </c>
       <c r="G425">
-        <v>5.882050687606982</v>
+        <v>5.882050687606987</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -11570,7 +11570,7 @@
         <v>506</v>
       </c>
       <c r="G426">
-        <v>5.765736281742133</v>
+        <v>5.765736281742138</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -11593,7 +11593,7 @@
         <v>506</v>
       </c>
       <c r="G427">
-        <v>6.307660310965609</v>
+        <v>6.307660310965614</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -11616,7 +11616,7 @@
         <v>506</v>
       </c>
       <c r="G428">
-        <v>5.771783583582383</v>
+        <v>5.771783583582389</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -11639,7 +11639,7 @@
         <v>506</v>
       </c>
       <c r="G429">
-        <v>6.287729765317944</v>
+        <v>6.287729765317948</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -11662,7 +11662,7 @@
         <v>506</v>
       </c>
       <c r="G430">
-        <v>6.021279617941228</v>
+        <v>6.021279617941232</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -11685,7 +11685,7 @@
         <v>506</v>
       </c>
       <c r="G431">
-        <v>5.663852786574919</v>
+        <v>5.663852786574925</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -11708,7 +11708,7 @@
         <v>506</v>
       </c>
       <c r="G432">
-        <v>5.984501688271263</v>
+        <v>5.984501688271267</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -11731,7 +11731,7 @@
         <v>506</v>
       </c>
       <c r="G433">
-        <v>6.026719326642912</v>
+        <v>6.026719326642916</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -11754,7 +11754,7 @@
         <v>506</v>
       </c>
       <c r="G434">
-        <v>6.244289792937739</v>
+        <v>6.244289792937742</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -11777,7 +11777,7 @@
         <v>506</v>
       </c>
       <c r="G435">
-        <v>6.21476801330661</v>
+        <v>6.214768013306616</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -11800,7 +11800,7 @@
         <v>498</v>
       </c>
       <c r="G436">
-        <v>5.396638309669928</v>
+        <v>5.396638309669926</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -11823,7 +11823,7 @@
         <v>498</v>
       </c>
       <c r="G437">
-        <v>5.868450806738736</v>
+        <v>5.868450806738734</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -11843,7 +11843,7 @@
         <v>498</v>
       </c>
       <c r="G438">
-        <v>4.920028978567242</v>
+        <v>4.92002897856724</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -11866,7 +11866,7 @@
         <v>498</v>
       </c>
       <c r="G439">
-        <v>5.174964721627769</v>
+        <v>5.174964721627767</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -11889,7 +11889,7 @@
         <v>501</v>
       </c>
       <c r="G440">
-        <v>5.872584116073818</v>
+        <v>5.872584116073821</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -11955,7 +11955,7 @@
         <v>499</v>
       </c>
       <c r="G443">
-        <v>5.46594614441871</v>
+        <v>5.465946144418712</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -11978,7 +11978,7 @@
         <v>502</v>
       </c>
       <c r="G444">
-        <v>5.963650903171933</v>
+        <v>5.963650903171936</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -12001,7 +12001,7 @@
         <v>502</v>
       </c>
       <c r="G445">
-        <v>5.845894191055038</v>
+        <v>5.845894191055041</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -12024,7 +12024,7 @@
         <v>508</v>
       </c>
       <c r="G446">
-        <v>5.940406749775158</v>
+        <v>5.94040674977516</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -12047,7 +12047,7 @@
         <v>508</v>
       </c>
       <c r="G447">
-        <v>5.471577806381942</v>
+        <v>5.471577806381943</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -12067,7 +12067,7 @@
         <v>507</v>
       </c>
       <c r="G448">
-        <v>6.382158625982668</v>
+        <v>6.38215862598267</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -12090,7 +12090,7 @@
         <v>507</v>
       </c>
       <c r="G449">
-        <v>5.88549461587558</v>
+        <v>5.885494615875582</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -12113,7 +12113,7 @@
         <v>507</v>
       </c>
       <c r="G450">
-        <v>5.80554555344623</v>
+        <v>5.805545553446232</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -12136,7 +12136,7 @@
         <v>510</v>
       </c>
       <c r="G451">
-        <v>5.966230296622131</v>
+        <v>5.966230296622132</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -12159,7 +12159,7 @@
         <v>504</v>
       </c>
       <c r="G452">
-        <v>5.840065448491844</v>
+        <v>5.840065448491847</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -12182,7 +12182,7 @@
         <v>504</v>
       </c>
       <c r="G453">
-        <v>5.42191159252394</v>
+        <v>5.421911592523943</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -12205,7 +12205,7 @@
         <v>504</v>
       </c>
       <c r="G454">
-        <v>5.884814402280639</v>
+        <v>5.884814402280641</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -12228,7 +12228,7 @@
         <v>517</v>
       </c>
       <c r="G455">
-        <v>5.969524255649999</v>
+        <v>5.969524255650001</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -12251,7 +12251,7 @@
         <v>506</v>
       </c>
       <c r="G456">
-        <v>6.127705991308872</v>
+        <v>6.127705991308876</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -12274,7 +12274,7 @@
         <v>506</v>
       </c>
       <c r="G457">
-        <v>5.896241684262948</v>
+        <v>5.896241684262955</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -12297,7 +12297,7 @@
         <v>506</v>
       </c>
       <c r="G458">
-        <v>5.577774915101035</v>
+        <v>5.577774915101039</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -12340,7 +12340,7 @@
         <v>509</v>
       </c>
       <c r="G460">
-        <v>5.477374456543451</v>
+        <v>5.477374456543453</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -12363,7 +12363,7 @@
         <v>517</v>
       </c>
       <c r="G461">
-        <v>6.130292648751898</v>
+        <v>6.130292648751899</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -12386,7 +12386,7 @@
         <v>506</v>
       </c>
       <c r="G462">
-        <v>5.540409638335334</v>
+        <v>5.54040963833534</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -12409,7 +12409,7 @@
         <v>503</v>
       </c>
       <c r="G463">
-        <v>5.658566509750873</v>
+        <v>5.658566509750874</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -12432,7 +12432,7 @@
         <v>499</v>
       </c>
       <c r="G464">
-        <v>5.200278345058182</v>
+        <v>5.200278345058185</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -12455,7 +12455,7 @@
         <v>499</v>
       </c>
       <c r="G465">
-        <v>5.461193792214874</v>
+        <v>5.461193792214876</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -12475,7 +12475,7 @@
         <v>505</v>
       </c>
       <c r="G466">
-        <v>5.733838535204193</v>
+        <v>5.733838535204196</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -12498,7 +12498,7 @@
         <v>505</v>
       </c>
       <c r="G467">
-        <v>5.648349969434379</v>
+        <v>5.648349969434381</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -12521,7 +12521,7 @@
         <v>502</v>
       </c>
       <c r="G468">
-        <v>5.773836466840327</v>
+        <v>5.773836466840328</v>
       </c>
     </row>
     <row r="469" spans="1:7">
@@ -12544,7 +12544,7 @@
         <v>502</v>
       </c>
       <c r="G469">
-        <v>5.763929074424383</v>
+        <v>5.763929074424387</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -12587,7 +12587,7 @@
         <v>510</v>
       </c>
       <c r="G471">
-        <v>5.836862930627677</v>
+        <v>5.836862930627678</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -12607,7 +12607,7 @@
         <v>511</v>
       </c>
       <c r="G472">
-        <v>5.518626247699748</v>
+        <v>5.518626247699746</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -12630,7 +12630,7 @@
         <v>511</v>
       </c>
       <c r="G473">
-        <v>7.132877561802082</v>
+        <v>7.132877561802077</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -12676,7 +12676,7 @@
         <v>513</v>
       </c>
       <c r="G475">
-        <v>5.920819900321298</v>
+        <v>5.920819900321299</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -12699,7 +12699,7 @@
         <v>513</v>
       </c>
       <c r="G476">
-        <v>6.212628780829375</v>
+        <v>6.212628780829376</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -12722,7 +12722,7 @@
         <v>513</v>
       </c>
       <c r="G477">
-        <v>5.56488762846373</v>
+        <v>5.564887628463731</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -12745,7 +12745,7 @@
         <v>513</v>
       </c>
       <c r="G478">
-        <v>5.587054877666491</v>
+        <v>5.587054877666492</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -12768,7 +12768,7 @@
         <v>513</v>
       </c>
       <c r="G479">
-        <v>5.8298774926508</v>
+        <v>5.829877492650803</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -12811,7 +12811,7 @@
         <v>514</v>
       </c>
       <c r="G481">
-        <v>6.052150290996404</v>
+        <v>6.052150290996402</v>
       </c>
     </row>
     <row r="482" spans="1:7">
@@ -12831,7 +12831,7 @@
         <v>509</v>
       </c>
       <c r="G482">
-        <v>5.361768995611945</v>
+        <v>5.361768995611946</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -12854,7 +12854,7 @@
         <v>516</v>
       </c>
       <c r="G483">
-        <v>6.019594235153162</v>
+        <v>6.019594235153163</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -12900,7 +12900,7 @@
         <v>504</v>
       </c>
       <c r="G485">
-        <v>5.979343444474576</v>
+        <v>5.97934344447458</v>
       </c>
     </row>
     <row r="486" spans="1:7">
@@ -12923,7 +12923,7 @@
         <v>504</v>
       </c>
       <c r="G486">
-        <v>6.200471460047178</v>
+        <v>6.200471460047182</v>
       </c>
     </row>
     <row r="487" spans="1:7">
@@ -12943,7 +12943,7 @@
         <v>504</v>
       </c>
       <c r="G487">
-        <v>5.885914345012953</v>
+        <v>5.885914345012956</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -13009,7 +13009,7 @@
         <v>517</v>
       </c>
       <c r="G490">
-        <v>5.403130425753229</v>
+        <v>5.40313042575323</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -13032,7 +13032,7 @@
         <v>517</v>
       </c>
       <c r="G491">
-        <v>5.891676386486116</v>
+        <v>5.891676386486118</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -13055,7 +13055,7 @@
         <v>506</v>
       </c>
       <c r="G492">
-        <v>5.750133780751246</v>
+        <v>5.750133780751252</v>
       </c>
     </row>
     <row r="493" spans="1:7">
@@ -13075,7 +13075,7 @@
         <v>506</v>
       </c>
       <c r="G493">
-        <v>5.702453088224599</v>
+        <v>5.702453088224604</v>
       </c>
     </row>
   </sheetData>
